--- a/ArticleManage/main_working_folder/output_folders/Data 145 Influences of impregnation ratio/Data145_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 145 Influences of impregnation ratio/Data145_all_graphs_excel.xlsx
@@ -5,12 +5,12 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 1 AC1-1h  0-1-100-1000 " sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 1 AC2-1-5h  0-1-350-550 " sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 1 AC2-1h  0-1-100-1000 " sheetId="3" r:id="rId5"/>
-    <sheet name="Figure 1 AC2-1h  0-1-350-550 " sheetId="4" r:id="rId6"/>
-    <sheet name="Figure 1 AC2-2h  0-1-350-550 " sheetId="5" r:id="rId7"/>
-    <sheet name="Figure 1 AC3-1h  0-1-100-1000 " sheetId="6" r:id="rId8"/>
+    <sheet name="Figure 1 AC1-1h  0&amp;1&amp;100&amp;1000 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 1 AC2-1-5h  0&amp;1&amp;350&amp;550 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 1 AC2-1h  0&amp;1&amp;100&amp;1000 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 1 AC2-1h  0&amp;1&amp;350&amp;550 " sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 1 AC2-2h  0&amp;1&amp;350&amp;550 " sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 1 AC3-1h  0&amp;1&amp;100&amp;1000 " sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -173,12 +173,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 AC1-1h  0-1-100-1000 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 AC1-1h  0&amp;1&amp;100&amp;1000 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 AC1-1h  0-1-100-1000 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 AC1-1h  0&amp;1&amp;100&amp;1000 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -487,12 +487,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 AC2-1-5h  0-1-350-550 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 AC2-1-5h  0&amp;1&amp;350&amp;550 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 AC2-1-5h  0-1-350-550 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 AC2-1-5h  0&amp;1&amp;350&amp;550 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -801,12 +801,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 AC2-1h  0-1-100-1000 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 AC2-1h  0&amp;1&amp;100&amp;1000 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 AC2-1h  0-1-100-1000 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 AC2-1h  0&amp;1&amp;100&amp;1000 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1115,12 +1115,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 AC2-1h  0-1-350-550 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 AC2-1h  0&amp;1&amp;350&amp;550 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 AC2-1h  0-1-350-550 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 AC2-1h  0&amp;1&amp;350&amp;550 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1429,12 +1429,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 AC2-2h  0-1-350-550 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 AC2-2h  0&amp;1&amp;350&amp;550 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 AC2-2h  0-1-350-550 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 AC2-2h  0&amp;1&amp;350&amp;550 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1743,12 +1743,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 AC3-1h  0-1-100-1000 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 AC3-1h  0&amp;1&amp;100&amp;1000 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 AC3-1h  0-1-100-1000 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 AC3-1h  0&amp;1&amp;100&amp;1000 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>

--- a/ArticleManage/main_working_folder/output_folders/Data 145 Influences of impregnation ratio/Data145_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 145 Influences of impregnation ratio/Data145_all_graphs_excel.xlsx
@@ -5,12 +5,12 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 1 AC1-1h  0&amp;1&amp;100&amp;1000 " sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 1 AC2-1-5h  0&amp;1&amp;350&amp;550 " sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 1 AC2-1h  0&amp;1&amp;100&amp;1000 " sheetId="3" r:id="rId5"/>
-    <sheet name="Figure 1 AC2-1h  0&amp;1&amp;350&amp;550 " sheetId="4" r:id="rId6"/>
-    <sheet name="Figure 1 AC2-2h  0&amp;1&amp;350&amp;550 " sheetId="5" r:id="rId7"/>
-    <sheet name="Figure 1 AC3-1h  0&amp;1&amp;100&amp;1000 " sheetId="6" r:id="rId8"/>
+    <sheet name="Figure 1_1 AC1-1h  0&amp;1&amp;100&amp;1000" sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 1_1 AC2-1h  0&amp;1&amp;100&amp;1000" sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 1_1 AC3-1h  0&amp;1&amp;100&amp;1000" sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 1_2 AC2-1-5h  0&amp;1&amp;350&amp;55" sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 1_2 AC2-1h  0&amp;1&amp;350&amp;550 " sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 1_2 AC2-2h  0&amp;1&amp;350&amp;550 " sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -28,16 +28,16 @@
     <t>Y</t>
   </si>
   <si>
+    <t>AC2-1h</t>
+  </si>
+  <si>
+    <t>AC3-1h</t>
+  </si>
+  <si>
     <t>AC2-1-5h</t>
   </si>
   <si>
-    <t>AC2-1h</t>
-  </si>
-  <si>
     <t>AC2-2h</t>
-  </si>
-  <si>
-    <t>AC3-1h</t>
   </si>
 </sst>
 </file>
@@ -114,7 +114,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki AC1-1h z wykresu 'Figure 1' </a:t>
+              <a:t>Izoterma adsorpcji probki AC1-1h z wykresu 'Figure 1_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -173,12 +173,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 AC1-1h  0&amp;1&amp;100&amp;1000 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1_1 AC1-1h  0&amp;1&amp;100&amp;1000'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 AC1-1h  0&amp;1&amp;100&amp;1000 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1_1 AC1-1h  0&amp;1&amp;100&amp;1000'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -428,7 +428,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki AC2-1-5h z wykresu 'Figure 1' </a:t>
+              <a:t>Izoterma adsorpcji probki AC2-1h z wykresu 'Figure 1_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -487,12 +487,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 AC2-1-5h  0&amp;1&amp;350&amp;550 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1_1 AC2-1h  0&amp;1&amp;100&amp;1000'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 AC2-1-5h  0&amp;1&amp;350&amp;550 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1_1 AC2-1h  0&amp;1&amp;100&amp;1000'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -576,8 +576,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="550"/>
-          <c:min val="350"/>
+          <c:max val="1000"/>
+          <c:min val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -742,7 +742,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki AC2-1h z wykresu 'Figure 1' </a:t>
+              <a:t>Izoterma adsorpcji probki AC3-1h z wykresu 'Figure 1_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -801,12 +801,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 AC2-1h  0&amp;1&amp;100&amp;1000 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1_1 AC3-1h  0&amp;1&amp;100&amp;1000'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 AC2-1h  0&amp;1&amp;100&amp;1000 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1_1 AC3-1h  0&amp;1&amp;100&amp;1000'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1056,7 +1056,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki AC2-1h z wykresu 'Figure 1' </a:t>
+              <a:t>Izoterma adsorpcji probki AC2-1-5h z wykresu 'Figure 1_2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1115,12 +1115,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 AC2-1h  0&amp;1&amp;350&amp;550 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1_2 AC2-1-5h  0&amp;1&amp;350&amp;55'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 AC2-1h  0&amp;1&amp;350&amp;550 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1_2 AC2-1-5h  0&amp;1&amp;350&amp;55'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1370,7 +1370,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki AC2-2h z wykresu 'Figure 1' </a:t>
+              <a:t>Izoterma adsorpcji probki AC2-1h z wykresu 'Figure 1_2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1429,12 +1429,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 AC2-2h  0&amp;1&amp;350&amp;550 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1_2 AC2-1h  0&amp;1&amp;350&amp;550 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 AC2-2h  0&amp;1&amp;350&amp;550 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1_2 AC2-1h  0&amp;1&amp;350&amp;550 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1684,7 +1684,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki AC3-1h z wykresu 'Figure 1' </a:t>
+              <a:t>Izoterma adsorpcji probki AC2-2h z wykresu 'Figure 1_2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1743,12 +1743,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 AC3-1h  0&amp;1&amp;100&amp;1000 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1_2 AC2-2h  0&amp;1&amp;350&amp;550 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 AC3-1h  0&amp;1&amp;100&amp;1000 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1_2 AC2-2h  0&amp;1&amp;350&amp;550 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1832,8 +1832,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1000"/>
-          <c:min val="100"/>
+          <c:max val="550"/>
+          <c:min val="350"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -6090,6 +6090,274 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.0091</v>
+      </c>
+      <c r="B3" s="0">
+        <v>381.25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.0285</v>
+      </c>
+      <c r="B4" s="0">
+        <v>411.25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.041</v>
+      </c>
+      <c r="B5" s="0">
+        <v>421.875</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.0484</v>
+      </c>
+      <c r="B6" s="0">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.0756</v>
+      </c>
+      <c r="B7" s="0">
+        <v>434.375</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.0861</v>
+      </c>
+      <c r="B8" s="0">
+        <v>436.875</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.1012</v>
+      </c>
+      <c r="B9" s="0">
+        <v>440.625</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.1494</v>
+      </c>
+      <c r="B10" s="0">
+        <v>446.25</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.2217</v>
+      </c>
+      <c r="B11" s="0">
+        <v>451.25</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.2704</v>
+      </c>
+      <c r="B12" s="0">
+        <v>453.125</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.2814</v>
+      </c>
+      <c r="B13" s="0">
+        <v>453.125</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.2929</v>
+      </c>
+      <c r="B14" s="0">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.328</v>
+      </c>
+      <c r="B15" s="0">
+        <v>456.25</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.3976</v>
+      </c>
+      <c r="B16" s="0">
+        <v>456.875</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.451</v>
+      </c>
+      <c r="B17" s="0">
+        <v>458.75</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.5023</v>
+      </c>
+      <c r="B18" s="0">
+        <v>458.125</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.5557</v>
+      </c>
+      <c r="B19" s="0">
+        <v>459.375</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.6081</v>
+      </c>
+      <c r="B20" s="0">
+        <v>459.375</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.6447</v>
+      </c>
+      <c r="B21" s="0">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.6782</v>
+      </c>
+      <c r="B22" s="0">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.7133</v>
+      </c>
+      <c r="B23" s="0">
+        <v>459.375</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.7473</v>
+      </c>
+      <c r="B24" s="0">
+        <v>459.375</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.7829</v>
+      </c>
+      <c r="B25" s="0">
+        <v>459.375</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.818</v>
+      </c>
+      <c r="B26" s="0">
+        <v>459.375</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.8536</v>
+      </c>
+      <c r="B27" s="0">
+        <v>459.375</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.8871</v>
+      </c>
+      <c r="B28" s="0">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.9232</v>
+      </c>
+      <c r="B29" s="0">
+        <v>461.25</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.9578</v>
+      </c>
+      <c r="B30" s="0">
+        <v>461.25</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.9756</v>
+      </c>
+      <c r="B31" s="0">
+        <v>463.125</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.9882</v>
+      </c>
+      <c r="B32" s="0">
+        <v>463.75</v>
+      </c>
+    </row>
+    <row r="33"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6098,7 +6366,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2">
@@ -6111,545 +6379,277 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9875</v>
+        <v>0.0086</v>
       </c>
       <c r="B3" s="0">
-        <v>516.779</v>
+        <v>526.875</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.9757</v>
+        <v>0.0181</v>
       </c>
       <c r="B4" s="0">
-        <v>516.2198</v>
+        <v>571.875</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.9591</v>
+        <v>0.0286</v>
       </c>
       <c r="B5" s="0">
-        <v>515.1033</v>
+        <v>603.75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.9411</v>
+        <v>0.0385</v>
       </c>
       <c r="B6" s="0">
-        <v>514.6813</v>
+        <v>630</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.9225</v>
+        <v>0.0427</v>
       </c>
       <c r="B7" s="0">
-        <v>514.5372</v>
+        <v>639.375</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.8843</v>
+        <v>0.0485</v>
       </c>
       <c r="B8" s="0">
-        <v>514.5266</v>
+        <v>651.25</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.8528</v>
+        <v>0.0579</v>
       </c>
       <c r="B9" s="0">
-        <v>514.3788</v>
+        <v>671.875</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.8172</v>
+        <v>0.071</v>
       </c>
       <c r="B10" s="0">
-        <v>514.091</v>
+        <v>694.375</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.7822</v>
+        <v>0.0831</v>
       </c>
       <c r="B11" s="0">
-        <v>514.3592</v>
+        <v>711.25</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.7466</v>
+        <v>0.0977</v>
       </c>
       <c r="B12" s="0">
-        <v>514.0713</v>
+        <v>730</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.713</v>
+        <v>0.1198</v>
       </c>
       <c r="B13" s="0">
-        <v>513.645</v>
+        <v>753.75</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.6774</v>
+        <v>0.1522</v>
       </c>
       <c r="B14" s="0">
-        <v>513.6351</v>
+        <v>778.125</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.6428</v>
+        <v>0.1999</v>
       </c>
       <c r="B15" s="0">
-        <v>513.2086</v>
+        <v>799.375</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.6072</v>
+        <v>0.2418</v>
       </c>
       <c r="B16" s="0">
-        <v>513.1987</v>
+        <v>810.625</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.5551</v>
+        <v>0.2727</v>
       </c>
       <c r="B17" s="0">
-        <v>512.4893</v>
+        <v>817.5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.5025</v>
+        <v>0.2947</v>
       </c>
       <c r="B18" s="0">
-        <v>512.1967</v>
+        <v>821.25</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.4504</v>
+        <v>0.3093</v>
       </c>
       <c r="B19" s="0">
-        <v>511.6262</v>
+        <v>823.75</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.3962</v>
+        <v>0.3318</v>
       </c>
       <c r="B20" s="0">
-        <v>510.2213</v>
+        <v>826.25</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.3281</v>
+        <v>0.3952</v>
       </c>
       <c r="B21" s="0">
-        <v>508.6735</v>
+        <v>831.875</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.2904</v>
+        <v>0.4496</v>
       </c>
       <c r="B22" s="0">
-        <v>507.5512</v>
+        <v>835.625</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.2816</v>
+        <v>0.501</v>
       </c>
       <c r="B23" s="0">
-        <v>506.9928</v>
+        <v>836.875</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.2713</v>
+        <v>0.5549</v>
       </c>
       <c r="B24" s="0">
-        <v>506.712</v>
+        <v>841.25</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.2223</v>
+        <v>0.6078</v>
       </c>
       <c r="B25" s="0">
-        <v>504.0576</v>
+        <v>841.25</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.1495</v>
+        <v>0.6434</v>
       </c>
       <c r="B26" s="0">
-        <v>498.617</v>
+        <v>843.75</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.102</v>
+        <v>0.6779</v>
       </c>
       <c r="B27" s="0">
-        <v>491.9325</v>
+        <v>845</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.085</v>
+        <v>0.7135</v>
       </c>
       <c r="B28" s="0">
-        <v>488.1751</v>
+        <v>845.625</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.0747</v>
+        <v>0.7476</v>
       </c>
       <c r="B29" s="0">
-        <v>485.5315</v>
+        <v>846.25</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.0566</v>
+        <v>0.7826</v>
       </c>
       <c r="B30" s="0">
-        <v>479.2722</v>
+        <v>846.875</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.0483</v>
+        <v>0.8188</v>
       </c>
       <c r="B31" s="0">
-        <v>474.9613</v>
+        <v>848.75</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.0442</v>
+        <v>0.8523</v>
       </c>
       <c r="B32" s="0">
-        <v>472.1805</v>
+        <v>848.75</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.039</v>
+        <v>0.8868</v>
       </c>
       <c r="B33" s="0">
-        <v>468.4264</v>
+        <v>850.625</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.0292</v>
+        <v>0.9606</v>
       </c>
       <c r="B34" s="0">
-        <v>459.1117</v>
+        <v>851.875</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.0173</v>
+        <v>0.9779</v>
       </c>
       <c r="B35" s="0">
-        <v>445.0708</v>
+        <v>853.75</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.0084</v>
+        <v>0.9921</v>
       </c>
       <c r="B36" s="0">
-        <v>423.6646</v>
+        <v>855</v>
       </c>
     </row>
     <row r="37"/>
-  </sheetData>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>0.0091</v>
-      </c>
-      <c r="B3" s="0">
-        <v>381.25</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>0.0285</v>
-      </c>
-      <c r="B4" s="0">
-        <v>411.25</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>0.041</v>
-      </c>
-      <c r="B5" s="0">
-        <v>421.875</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>0.0484</v>
-      </c>
-      <c r="B6" s="0">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>0.0756</v>
-      </c>
-      <c r="B7" s="0">
-        <v>434.375</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>0.0861</v>
-      </c>
-      <c r="B8" s="0">
-        <v>436.875</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>0.1012</v>
-      </c>
-      <c r="B9" s="0">
-        <v>440.625</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>0.1494</v>
-      </c>
-      <c r="B10" s="0">
-        <v>446.25</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>0.2217</v>
-      </c>
-      <c r="B11" s="0">
-        <v>451.25</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
-        <v>0.2704</v>
-      </c>
-      <c r="B12" s="0">
-        <v>453.125</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
-        <v>0.2814</v>
-      </c>
-      <c r="B13" s="0">
-        <v>453.125</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
-        <v>0.2929</v>
-      </c>
-      <c r="B14" s="0">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
-        <v>0.328</v>
-      </c>
-      <c r="B15" s="0">
-        <v>456.25</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>0.3976</v>
-      </c>
-      <c r="B16" s="0">
-        <v>456.875</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>0.451</v>
-      </c>
-      <c r="B17" s="0">
-        <v>458.75</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.5023</v>
-      </c>
-      <c r="B18" s="0">
-        <v>458.125</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>0.5557</v>
-      </c>
-      <c r="B19" s="0">
-        <v>459.375</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.6081</v>
-      </c>
-      <c r="B20" s="0">
-        <v>459.375</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.6447</v>
-      </c>
-      <c r="B21" s="0">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.6782</v>
-      </c>
-      <c r="B22" s="0">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.7133</v>
-      </c>
-      <c r="B23" s="0">
-        <v>459.375</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.7473</v>
-      </c>
-      <c r="B24" s="0">
-        <v>459.375</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.7829</v>
-      </c>
-      <c r="B25" s="0">
-        <v>459.375</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.818</v>
-      </c>
-      <c r="B26" s="0">
-        <v>459.375</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.8536</v>
-      </c>
-      <c r="B27" s="0">
-        <v>459.375</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.8871</v>
-      </c>
-      <c r="B28" s="0">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.9232</v>
-      </c>
-      <c r="B29" s="0">
-        <v>461.25</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.9578</v>
-      </c>
-      <c r="B30" s="0">
-        <v>461.25</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.9756</v>
-      </c>
-      <c r="B31" s="0">
-        <v>463.125</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.9882</v>
-      </c>
-      <c r="B32" s="0">
-        <v>463.75</v>
-      </c>
-    </row>
-    <row r="33"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -6658,7 +6658,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6666,7 +6666,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2">
@@ -6679,261 +6679,277 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9864</v>
+        <v>0.9875</v>
       </c>
       <c r="B3" s="0">
-        <v>462.1574</v>
+        <v>516.779</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.974</v>
+        <v>0.9757</v>
       </c>
       <c r="B4" s="0">
-        <v>461.3201</v>
+        <v>516.2198</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.9575</v>
+        <v>0.9591</v>
       </c>
       <c r="B5" s="0">
-        <v>460.7595</v>
+        <v>515.1033</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.9219</v>
+        <v>0.9411</v>
       </c>
       <c r="B6" s="0">
-        <v>460.0547</v>
+        <v>514.6813</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.8873</v>
+        <v>0.9225</v>
       </c>
       <c r="B7" s="0">
-        <v>459.7671</v>
+        <v>514.5372</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.8532</v>
+        <v>0.8843</v>
       </c>
       <c r="B8" s="0">
-        <v>459.8967</v>
+        <v>514.5266</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.8176</v>
+        <v>0.8528</v>
       </c>
       <c r="B9" s="0">
-        <v>459.4698</v>
+        <v>514.3788</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.782</v>
+        <v>0.8172</v>
       </c>
       <c r="B10" s="0">
-        <v>459.4599</v>
+        <v>514.091</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.7485</v>
+        <v>0.7822</v>
       </c>
       <c r="B11" s="0">
-        <v>459.3116</v>
+        <v>514.3592</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.7118</v>
+        <v>0.7466</v>
       </c>
       <c r="B12" s="0">
-        <v>459.3014</v>
+        <v>514.0713</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.6778</v>
+        <v>0.713</v>
       </c>
       <c r="B13" s="0">
-        <v>459.014</v>
+        <v>513.645</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.6427</v>
+        <v>0.6774</v>
       </c>
       <c r="B14" s="0">
-        <v>458.7263</v>
+        <v>513.6351</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.6076</v>
+        <v>0.6428</v>
       </c>
       <c r="B15" s="0">
-        <v>458.7165</v>
+        <v>513.2086</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.5545</v>
+        <v>0.6072</v>
       </c>
       <c r="B16" s="0">
-        <v>458.2848</v>
+        <v>513.1987</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.5023</v>
+        <v>0.5551</v>
       </c>
       <c r="B17" s="0">
-        <v>457.8533</v>
+        <v>512.4893</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.4502</v>
+        <v>0.5025</v>
       </c>
       <c r="B18" s="0">
-        <v>457.1439</v>
+        <v>512.1967</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.3976</v>
+        <v>0.4504</v>
       </c>
       <c r="B19" s="0">
-        <v>456.5733</v>
+        <v>511.6262</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.3284</v>
+        <v>0.3962</v>
       </c>
       <c r="B20" s="0">
-        <v>455.0253</v>
+        <v>510.2213</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.2897</v>
+        <v>0.3281</v>
       </c>
       <c r="B21" s="0">
-        <v>453.4857</v>
+        <v>508.6735</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.2794</v>
+        <v>0.2904</v>
       </c>
       <c r="B22" s="0">
-        <v>453.4828</v>
+        <v>507.5512</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.2706</v>
+        <v>0.2816</v>
       </c>
       <c r="B23" s="0">
-        <v>452.9244</v>
+        <v>506.9928</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.2206</v>
+        <v>0.2713</v>
       </c>
       <c r="B24" s="0">
-        <v>450.5478</v>
+        <v>506.712</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.1494</v>
+        <v>0.2223</v>
       </c>
       <c r="B25" s="0">
-        <v>445.5245</v>
+        <v>504.0576</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.1199</v>
+        <v>0.1495</v>
       </c>
       <c r="B26" s="0">
-        <v>441.9027</v>
+        <v>498.617</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.1008</v>
+        <v>0.102</v>
       </c>
       <c r="B27" s="0">
-        <v>438.9787</v>
+        <v>491.9325</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.0848</v>
+        <v>0.085</v>
       </c>
       <c r="B28" s="0">
-        <v>435.9166</v>
+        <v>488.1751</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.075</v>
+        <v>0.0747</v>
       </c>
       <c r="B29" s="0">
-        <v>433.6901</v>
+        <v>485.5315</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.0471</v>
+        <v>0.0566</v>
       </c>
       <c r="B30" s="0">
-        <v>423.8144</v>
+        <v>479.2722</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.0389</v>
+        <v>0.0483</v>
       </c>
       <c r="B31" s="0">
-        <v>420.1984</v>
+        <v>474.9613</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.0275</v>
+        <v>0.0442</v>
       </c>
       <c r="B32" s="0">
-        <v>411.3002</v>
+        <v>472.1805</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.0197</v>
+        <v>0.039</v>
       </c>
       <c r="B33" s="0">
-        <v>400.5962</v>
+        <v>468.4264</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.0083</v>
+        <v>0.0292</v>
       </c>
       <c r="B34" s="0">
-        <v>382.9419</v>
-      </c>
-    </row>
-    <row r="35"/>
+        <v>459.1117</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>0.0173</v>
+      </c>
+      <c r="B35" s="0">
+        <v>445.0708</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>0.0084</v>
+      </c>
+      <c r="B36" s="0">
+        <v>423.6646</v>
+      </c>
+    </row>
+    <row r="37"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -6950,7 +6966,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2">
@@ -6963,226 +6979,226 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9756</v>
+        <v>0.9864</v>
       </c>
       <c r="B3" s="0">
-        <v>483.9751</v>
+        <v>462.1574</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.957</v>
+        <v>0.974</v>
       </c>
       <c r="B4" s="0">
-        <v>483.414</v>
+        <v>461.3201</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.9405</v>
+        <v>0.9575</v>
       </c>
       <c r="B5" s="0">
-        <v>482.5755</v>
+        <v>460.7595</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.9224</v>
+        <v>0.9219</v>
       </c>
       <c r="B6" s="0">
-        <v>482.4315</v>
+        <v>460.0547</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.8868</v>
+        <v>0.8873</v>
       </c>
       <c r="B7" s="0">
-        <v>482.2826</v>
+        <v>459.7671</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.8517</v>
+        <v>0.8532</v>
       </c>
       <c r="B8" s="0">
-        <v>481.717</v>
+        <v>459.8967</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.8166</v>
+        <v>0.8176</v>
       </c>
       <c r="B9" s="0">
-        <v>481.8462</v>
+        <v>459.4698</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.7816</v>
+        <v>0.782</v>
       </c>
       <c r="B10" s="0">
-        <v>481.8364</v>
+        <v>459.4599</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.7109</v>
+        <v>0.7485</v>
       </c>
       <c r="B11" s="0">
-        <v>481.2608</v>
+        <v>459.3116</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.6773</v>
+        <v>0.7118</v>
       </c>
       <c r="B12" s="0">
-        <v>480.9735</v>
+        <v>459.3014</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.6433</v>
+        <v>0.6778</v>
       </c>
       <c r="B13" s="0">
-        <v>480.9641</v>
+        <v>459.014</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.6071</v>
+        <v>0.6427</v>
       </c>
       <c r="B14" s="0">
-        <v>480.5371</v>
+        <v>458.7263</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.555</v>
+        <v>0.6076</v>
       </c>
       <c r="B15" s="0">
-        <v>480.2446</v>
+        <v>458.7165</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.5024</v>
+        <v>0.5545</v>
       </c>
       <c r="B16" s="0">
-        <v>479.813</v>
+        <v>458.2848</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.4498</v>
+        <v>0.5023</v>
       </c>
       <c r="B17" s="0">
-        <v>479.1035</v>
+        <v>457.8533</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.3961</v>
+        <v>0.4502</v>
       </c>
       <c r="B18" s="0">
-        <v>478.2546</v>
+        <v>457.1439</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.3295</v>
+        <v>0.3976</v>
       </c>
       <c r="B19" s="0">
-        <v>476.5683</v>
+        <v>456.5733</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.2826</v>
+        <v>0.3284</v>
       </c>
       <c r="B20" s="0">
-        <v>475.1654</v>
+        <v>455.0253</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.2702</v>
+        <v>0.2897</v>
       </c>
       <c r="B21" s="0">
-        <v>475.023</v>
+        <v>453.4857</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.2547</v>
+        <v>0.2794</v>
       </c>
       <c r="B22" s="0">
-        <v>474.0458</v>
+        <v>453.4828</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.2237</v>
+        <v>0.2706</v>
       </c>
       <c r="B23" s="0">
-        <v>472.6473</v>
+        <v>452.9244</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.1505</v>
+        <v>0.2206</v>
       </c>
       <c r="B24" s="0">
-        <v>467.2065</v>
+        <v>450.5478</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.1004</v>
+        <v>0.1494</v>
       </c>
       <c r="B25" s="0">
-        <v>460.1043</v>
+        <v>445.5245</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.0849</v>
+        <v>0.1199</v>
       </c>
       <c r="B26" s="0">
-        <v>456.4864</v>
+        <v>441.9027</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.0751</v>
+        <v>0.1008</v>
       </c>
       <c r="B27" s="0">
-        <v>453.426</v>
+        <v>438.9787</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.058</v>
+        <v>0.0848</v>
       </c>
       <c r="B28" s="0">
-        <v>447.7229</v>
+        <v>435.9166</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.0487</v>
+        <v>0.075</v>
       </c>
       <c r="B29" s="0">
-        <v>443.5507</v>
+        <v>433.6901</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.042</v>
+        <v>0.0471</v>
       </c>
       <c r="B30" s="0">
-        <v>440.0742</v>
+        <v>423.8144</v>
       </c>
     </row>
     <row r="31">
@@ -7190,31 +7206,31 @@
         <v>0.0389</v>
       </c>
       <c r="B31" s="0">
-        <v>437.2937</v>
+        <v>420.1984</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.0286</v>
+        <v>0.0275</v>
       </c>
       <c r="B32" s="0">
-        <v>430.3415</v>
+        <v>411.3002</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.0182</v>
+        <v>0.0197</v>
       </c>
       <c r="B33" s="0">
-        <v>417.691</v>
+        <v>400.5962</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.0084</v>
+        <v>0.0083</v>
       </c>
       <c r="B34" s="0">
-        <v>397.3964</v>
+        <v>382.9419</v>
       </c>
     </row>
     <row r="35"/>
@@ -7226,7 +7242,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7247,277 +7263,261 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0086</v>
+        <v>0.9756</v>
       </c>
       <c r="B3" s="0">
-        <v>526.875</v>
+        <v>483.9751</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0181</v>
+        <v>0.957</v>
       </c>
       <c r="B4" s="0">
-        <v>571.875</v>
+        <v>483.414</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0286</v>
+        <v>0.9405</v>
       </c>
       <c r="B5" s="0">
-        <v>603.75</v>
+        <v>482.5755</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0385</v>
+        <v>0.9224</v>
       </c>
       <c r="B6" s="0">
-        <v>630</v>
+        <v>482.4315</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0427</v>
+        <v>0.8868</v>
       </c>
       <c r="B7" s="0">
-        <v>639.375</v>
+        <v>482.2826</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0485</v>
+        <v>0.8517</v>
       </c>
       <c r="B8" s="0">
-        <v>651.25</v>
+        <v>481.717</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.0579</v>
+        <v>0.8166</v>
       </c>
       <c r="B9" s="0">
-        <v>671.875</v>
+        <v>481.8462</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.071</v>
+        <v>0.7816</v>
       </c>
       <c r="B10" s="0">
-        <v>694.375</v>
+        <v>481.8364</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.0831</v>
+        <v>0.7109</v>
       </c>
       <c r="B11" s="0">
-        <v>711.25</v>
+        <v>481.2608</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.0977</v>
+        <v>0.6773</v>
       </c>
       <c r="B12" s="0">
-        <v>730</v>
+        <v>480.9735</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.1198</v>
+        <v>0.6433</v>
       </c>
       <c r="B13" s="0">
-        <v>753.75</v>
+        <v>480.9641</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.1522</v>
+        <v>0.6071</v>
       </c>
       <c r="B14" s="0">
-        <v>778.125</v>
+        <v>480.5371</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.1999</v>
+        <v>0.555</v>
       </c>
       <c r="B15" s="0">
-        <v>799.375</v>
+        <v>480.2446</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.2418</v>
+        <v>0.5024</v>
       </c>
       <c r="B16" s="0">
-        <v>810.625</v>
+        <v>479.813</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.2727</v>
+        <v>0.4498</v>
       </c>
       <c r="B17" s="0">
-        <v>817.5</v>
+        <v>479.1035</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.2947</v>
+        <v>0.3961</v>
       </c>
       <c r="B18" s="0">
-        <v>821.25</v>
+        <v>478.2546</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.3093</v>
+        <v>0.3295</v>
       </c>
       <c r="B19" s="0">
-        <v>823.75</v>
+        <v>476.5683</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.3318</v>
+        <v>0.2826</v>
       </c>
       <c r="B20" s="0">
-        <v>826.25</v>
+        <v>475.1654</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.3952</v>
+        <v>0.2702</v>
       </c>
       <c r="B21" s="0">
-        <v>831.875</v>
+        <v>475.023</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.4496</v>
+        <v>0.2547</v>
       </c>
       <c r="B22" s="0">
-        <v>835.625</v>
+        <v>474.0458</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.501</v>
+        <v>0.2237</v>
       </c>
       <c r="B23" s="0">
-        <v>836.875</v>
+        <v>472.6473</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.5549</v>
+        <v>0.1505</v>
       </c>
       <c r="B24" s="0">
-        <v>841.25</v>
+        <v>467.2065</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.6078</v>
+        <v>0.1004</v>
       </c>
       <c r="B25" s="0">
-        <v>841.25</v>
+        <v>460.1043</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.6434</v>
+        <v>0.0849</v>
       </c>
       <c r="B26" s="0">
-        <v>843.75</v>
+        <v>456.4864</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.6779</v>
+        <v>0.0751</v>
       </c>
       <c r="B27" s="0">
-        <v>845</v>
+        <v>453.426</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.7135</v>
+        <v>0.058</v>
       </c>
       <c r="B28" s="0">
-        <v>845.625</v>
+        <v>447.7229</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.7476</v>
+        <v>0.0487</v>
       </c>
       <c r="B29" s="0">
-        <v>846.25</v>
+        <v>443.5507</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.7826</v>
+        <v>0.042</v>
       </c>
       <c r="B30" s="0">
-        <v>846.875</v>
+        <v>440.0742</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.8188</v>
+        <v>0.0389</v>
       </c>
       <c r="B31" s="0">
-        <v>848.75</v>
+        <v>437.2937</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.8523</v>
+        <v>0.0286</v>
       </c>
       <c r="B32" s="0">
-        <v>848.75</v>
+        <v>430.3415</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.8868</v>
+        <v>0.0182</v>
       </c>
       <c r="B33" s="0">
-        <v>850.625</v>
+        <v>417.691</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.9606</v>
+        <v>0.0084</v>
       </c>
       <c r="B34" s="0">
-        <v>851.875</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.9779</v>
-      </c>
-      <c r="B35" s="0">
-        <v>853.75</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.9921</v>
-      </c>
-      <c r="B36" s="0">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="37"/>
+        <v>397.3964</v>
+      </c>
+    </row>
+    <row r="35"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
